--- a/DaySale_2025-05-26_22-53.xlsx
+++ b/DaySale_2025-05-26_22-53.xlsx
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>76.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
     <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2530,7 +2533,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2540,14 +2543,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2556,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2573,14 +2576,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2589,7 +2592,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2606,11 +2609,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2622,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2639,14 +2642,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2655,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,14 +2675,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2688,14 +2691,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,14 +2708,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2721,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,11 +2741,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2754,28 +2757,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2787,7 +2790,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2800,15 +2803,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2820,7 +2823,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2837,11 +2840,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2853,7 +2856,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2870,11 +2873,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2886,14 +2889,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,14 +2906,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,14 +2939,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2969,14 +2972,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,31 +2988,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>174</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,7 +3021,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3031,18 +3034,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,31 +3054,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3084,28 +3087,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3117,31 +3120,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3157,24 +3160,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3196,18 +3199,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3216,66 +3219,99 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>21</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>162</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>19</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>20</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3648.4400000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>197</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3768.4400000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>198</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
         <v>199</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>200</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3589,10 +3625,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-26_22-53.xlsx
+++ b/DaySale_2025-05-26_22-53.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -407,9 +416,6 @@
     <t>156.00</t>
   </si>
   <si>
-    <t>12.4800</t>
-  </si>
-  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -563,6 +569,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -579,9 +588,6 @@
   </si>
   <si>
     <t>شاش فازلين 10*10 سم</t>
-  </si>
-  <si>
-    <t>12:0</t>
   </si>
   <si>
     <t>7.00</t>
@@ -1296,7 +1302,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1305,14 +1311,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1329,7 +1335,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1338,14 +1344,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1362,7 +1368,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1378,7 +1384,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1388,14 +1394,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1404,14 +1410,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1421,14 +1427,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1437,14 +1443,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1461,7 +1467,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1477,7 +1483,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1487,14 +1493,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1503,14 +1509,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1520,11 +1526,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1536,14 +1542,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1553,14 +1559,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1569,14 +1575,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1593,7 +1599,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1609,7 +1615,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1619,14 +1625,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1635,14 +1641,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1659,7 +1665,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1675,7 +1681,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1685,14 +1691,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1707,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,14 +1724,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1751,14 +1757,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,14 +1773,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,14 +1790,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1807,7 +1813,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1823,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1840,7 +1846,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,11 +1856,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1866,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1890,7 +1896,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1906,7 +1912,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1922,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,14 +1938,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1972,7 +1978,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +1988,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2005,7 +2011,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,14 +2021,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2038,7 +2044,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2055,7 +2061,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,7 +2077,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2088,7 +2094,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2104,7 +2110,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2121,7 +2127,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2137,7 +2143,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2154,7 +2160,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,7 +2190,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,11 +2219,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2236,7 +2242,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2253,7 +2259,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2269,7 +2275,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2286,7 +2292,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2302,7 +2308,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2351,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2384,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2401,7 +2407,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2418,7 +2424,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2434,7 +2440,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2448,10 +2454,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2466,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2483,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2516,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2549,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,14 +2582,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2598,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2615,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2632,7 +2638,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2648,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2681,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2698,7 +2704,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2714,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2747,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2780,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,31 +2796,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,31 +2829,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2976,10 +2982,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2995,7 +3001,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,31 +3027,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>175</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3061,13 +3067,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3075,10 +3081,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3094,13 +3100,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3108,10 +3114,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,20 +3126,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3141,10 +3147,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3160,24 +3166,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,31 +3192,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3219,31 +3225,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3252,66 +3258,99 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3768.4400000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>198</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>199</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>25</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>164</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>23</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3782.9200000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
         <v>200</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>201</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>202</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3630,10 +3669,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-26_22-53.xlsx
+++ b/DaySale_2025-05-26_22-53.xlsx
@@ -329,7 +329,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
+    <t>70.0000</t>
   </si>
   <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
@@ -2110,7 +2110,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2127,7 +2127,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -3320,7 +3320,7 @@
     </row>
     <row r="70" ht="24.75" customHeight="1">
       <c r="P70" s="13">
-        <v>3782.9200000000001</v>
+        <v>3817.9200000000001</v>
       </c>
       <c r="Q70" s="13"/>
     </row>
